--- a/medicine/Sexualité et sexologie/Monogant/Monogant.xlsx
+++ b/medicine/Sexualité et sexologie/Monogant/Monogant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monogant est un des nombreux types d'entraves utilisées dans les jeux de bondage.
 L'invention du monogant, sous le terme anglais de single glove, est fréquemment attribuée au dessinateur et photographe britannique John Willie.
@@ -519,7 +531,9 @@
           <t>Culture grand public</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vidéo-clip de Madonna Human Nature met en scène pendant quelques secondes une femme entravée dans un monogant.
 </t>
